--- a/app/accounting/310000ZM/23 Waller Avenue, Armidale Back Up.xlsx
+++ b/app/accounting/310000ZM/23 Waller Avenue, Armidale Back Up.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\00-Bridge Database\310000ZM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFB0EE5-BD3D-4327-8E2E-B76AB7E377B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B93896-3D8B-4E4F-80F7-C3ACE501B1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5265" yWindow="2775" windowWidth="27075" windowHeight="11775" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
+    <workbookView xWindow="44880" yWindow="3405" windowWidth="29040" windowHeight="15720" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
   <sheets>
     <sheet name="Fee Proposal" sheetId="11" r:id="rId1"/>
@@ -928,59 +928,59 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1426,8 +1426,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X215"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="160" zoomScaleNormal="85" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="85" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1452,10 +1452,10 @@
       <c r="G1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="49"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -1466,12 +1466,12 @@
       <c r="G2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="56">
+      <c r="H2" s="65">
         <v>45227</v>
       </c>
-      <c r="I2" s="56"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
+      <c r="I2" s="65"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="19"/>
@@ -1527,17 +1527,17 @@
       <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
       <c r="K6" s="18"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1591,14 +1591,14 @@
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="63"/>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1613,14 +1613,14 @@
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
       <c r="I11" s="50"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="55"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="64"/>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="50"/>
@@ -1632,14 +1632,14 @@
       <c r="G12" s="50"/>
       <c r="H12" s="50"/>
       <c r="I12" s="50"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="50"/>
@@ -1651,14 +1651,14 @@
       <c r="G13" s="50"/>
       <c r="H13" s="50"/>
       <c r="I13" s="50"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="55"/>
-      <c r="T13" s="55"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="64"/>
     </row>
     <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="50"/>
@@ -1670,14 +1670,14 @@
       <c r="G14" s="50"/>
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="55"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="64"/>
     </row>
     <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
@@ -1708,16 +1708,16 @@
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="7"/>
@@ -1726,16 +1726,16 @@
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="23"/>
@@ -1744,16 +1744,16 @@
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="13"/>
@@ -1791,16 +1791,16 @@
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
@@ -1811,32 +1811,32 @@
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
       <c r="P23" s="17"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
       <c r="P24" s="17"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1863,46 +1863,46 @@
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
       <c r="K29" s="29"/>
       <c r="L29" s="29"/>
     </row>
@@ -1933,46 +1933,46 @@
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
@@ -2681,16 +2681,16 @@
     </row>
     <row r="101" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="44"/>
-      <c r="B101" s="52" t="s">
+      <c r="B101" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="C101" s="52"/>
-      <c r="D101" s="52"/>
-      <c r="E101" s="52"/>
-      <c r="F101" s="52"/>
-      <c r="G101" s="52"/>
-      <c r="H101" s="52"/>
-      <c r="I101" s="52"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="54"/>
+      <c r="F101" s="54"/>
+      <c r="G101" s="54"/>
+      <c r="H101" s="54"/>
+      <c r="I101" s="54"/>
       <c r="Q101" s="34"/>
     </row>
     <row r="102" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2849,16 +2849,16 @@
     </row>
     <row r="114" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="44"/>
-      <c r="B114" s="49" t="s">
+      <c r="B114" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C114" s="49"/>
-      <c r="D114" s="49"/>
-      <c r="E114" s="49"/>
-      <c r="F114" s="49"/>
-      <c r="G114" s="49"/>
-      <c r="H114" s="49"/>
-      <c r="I114" s="49"/>
+      <c r="C114" s="51"/>
+      <c r="D114" s="51"/>
+      <c r="E114" s="51"/>
+      <c r="F114" s="51"/>
+      <c r="G114" s="51"/>
+      <c r="H114" s="51"/>
+      <c r="I114" s="51"/>
       <c r="M114" s="7"/>
       <c r="N114" s="23"/>
       <c r="O114" s="22"/>
@@ -2927,16 +2927,16 @@
     </row>
     <row r="119" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="45"/>
-      <c r="B119" s="52" t="s">
+      <c r="B119" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="C119" s="52"/>
-      <c r="D119" s="52"/>
-      <c r="E119" s="52"/>
-      <c r="F119" s="52"/>
-      <c r="G119" s="52"/>
-      <c r="H119" s="52"/>
-      <c r="I119" s="52"/>
+      <c r="C119" s="54"/>
+      <c r="D119" s="54"/>
+      <c r="E119" s="54"/>
+      <c r="F119" s="54"/>
+      <c r="G119" s="54"/>
+      <c r="H119" s="54"/>
+      <c r="I119" s="54"/>
       <c r="M119"/>
       <c r="N119"/>
     </row>
@@ -2946,14 +2946,14 @@
         <v>28</v>
       </c>
       <c r="C120" s="28"/>
-      <c r="D120" s="59" t="s">
+      <c r="D120" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E120" s="59"/>
-      <c r="F120" s="59" t="s">
+      <c r="E120" s="52"/>
+      <c r="F120" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G120" s="59"/>
+      <c r="G120" s="52"/>
       <c r="H120" s="9"/>
       <c r="Q120" s="5"/>
     </row>
@@ -2963,14 +2963,14 @@
         <v>24</v>
       </c>
       <c r="C121" s="28"/>
-      <c r="D121" s="59" t="s">
+      <c r="D121" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="E121" s="59"/>
-      <c r="F121" s="60">
+      <c r="E121" s="52"/>
+      <c r="F121" s="53">
         <v>10000000</v>
       </c>
-      <c r="G121" s="60"/>
+      <c r="G121" s="53"/>
       <c r="H121" s="23"/>
       <c r="I121" s="7"/>
       <c r="M121" s="5"/>
@@ -2985,14 +2985,14 @@
         <v>26</v>
       </c>
       <c r="C122" s="28"/>
-      <c r="D122" s="59" t="s">
+      <c r="D122" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="E122" s="59"/>
-      <c r="F122" s="60">
+      <c r="E122" s="52"/>
+      <c r="F122" s="53">
         <v>20000000</v>
       </c>
-      <c r="G122" s="60"/>
+      <c r="G122" s="53"/>
       <c r="H122" s="23"/>
       <c r="M122" s="9"/>
     </row>
@@ -3145,12 +3145,12 @@
     </row>
     <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="B135" s="61" t="s">
+      <c r="B135" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="C135" s="62"/>
-      <c r="D135" s="62"/>
-      <c r="E135" s="63"/>
+      <c r="C135" s="56"/>
+      <c r="D135" s="56"/>
+      <c r="E135" s="57"/>
       <c r="F135" s="39" t="s">
         <v>95</v>
       </c>
@@ -3161,12 +3161,12 @@
     </row>
     <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="B136" s="64" t="s">
+      <c r="B136" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="C136" s="65"/>
-      <c r="D136" s="65"/>
-      <c r="E136" s="66"/>
+      <c r="C136" s="59"/>
+      <c r="D136" s="59"/>
+      <c r="E136" s="60"/>
       <c r="F136" s="31">
         <v>5600</v>
       </c>
@@ -3436,11 +3436,11 @@
       <c r="B165" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F165" s="58">
+      <c r="F165" s="61">
         <f ca="1">TODAY()</f>
-        <v>45334</v>
-      </c>
-      <c r="G165" s="58"/>
+        <v>45411</v>
+      </c>
+      <c r="G165" s="61"/>
     </row>
     <row r="166" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="36" t="s">
@@ -3453,607 +3453,607 @@
       <c r="A167" s="8">
         <v>1</v>
       </c>
-      <c r="B167" s="57" t="s">
+      <c r="B167" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C167" s="57"/>
-      <c r="D167" s="57"/>
-      <c r="E167" s="57"/>
-      <c r="F167" s="57"/>
-      <c r="G167" s="57"/>
-      <c r="H167" s="57"/>
-      <c r="I167" s="57"/>
+      <c r="C167" s="49"/>
+      <c r="D167" s="49"/>
+      <c r="E167" s="49"/>
+      <c r="F167" s="49"/>
+      <c r="G167" s="49"/>
+      <c r="H167" s="49"/>
+      <c r="I167" s="49"/>
     </row>
     <row r="168" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="8">
         <v>2</v>
       </c>
-      <c r="B168" s="57" t="s">
+      <c r="B168" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="C168" s="57"/>
-      <c r="D168" s="57"/>
-      <c r="E168" s="57"/>
-      <c r="F168" s="57"/>
-      <c r="G168" s="57"/>
-      <c r="H168" s="57"/>
-      <c r="I168" s="57"/>
+      <c r="C168" s="49"/>
+      <c r="D168" s="49"/>
+      <c r="E168" s="49"/>
+      <c r="F168" s="49"/>
+      <c r="G168" s="49"/>
+      <c r="H168" s="49"/>
+      <c r="I168" s="49"/>
     </row>
     <row r="169" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="8">
         <v>3</v>
       </c>
-      <c r="B169" s="57" t="s">
+      <c r="B169" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="C169" s="57"/>
-      <c r="D169" s="57"/>
-      <c r="E169" s="57"/>
-      <c r="F169" s="57"/>
-      <c r="G169" s="57"/>
-      <c r="H169" s="57"/>
-      <c r="I169" s="57"/>
+      <c r="C169" s="49"/>
+      <c r="D169" s="49"/>
+      <c r="E169" s="49"/>
+      <c r="F169" s="49"/>
+      <c r="G169" s="49"/>
+      <c r="H169" s="49"/>
+      <c r="I169" s="49"/>
     </row>
     <row r="170" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="8">
         <v>4</v>
       </c>
-      <c r="B170" s="57" t="s">
+      <c r="B170" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C170" s="57"/>
-      <c r="D170" s="57"/>
-      <c r="E170" s="57"/>
-      <c r="F170" s="57"/>
-      <c r="G170" s="57"/>
-      <c r="H170" s="57"/>
-      <c r="I170" s="57"/>
+      <c r="C170" s="49"/>
+      <c r="D170" s="49"/>
+      <c r="E170" s="49"/>
+      <c r="F170" s="49"/>
+      <c r="G170" s="49"/>
+      <c r="H170" s="49"/>
+      <c r="I170" s="49"/>
     </row>
     <row r="171" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
         <v>5</v>
       </c>
-      <c r="B171" s="57" t="s">
+      <c r="B171" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C171" s="57"/>
-      <c r="D171" s="57"/>
-      <c r="E171" s="57"/>
-      <c r="F171" s="57"/>
-      <c r="G171" s="57"/>
-      <c r="H171" s="57"/>
-      <c r="I171" s="57"/>
+      <c r="C171" s="49"/>
+      <c r="D171" s="49"/>
+      <c r="E171" s="49"/>
+      <c r="F171" s="49"/>
+      <c r="G171" s="49"/>
+      <c r="H171" s="49"/>
+      <c r="I171" s="49"/>
     </row>
     <row r="172" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="8"/>
-      <c r="B172" s="57" t="s">
+      <c r="B172" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C172" s="57"/>
-      <c r="D172" s="57"/>
-      <c r="E172" s="57"/>
-      <c r="F172" s="57"/>
-      <c r="G172" s="57"/>
-      <c r="H172" s="57"/>
-      <c r="I172" s="57"/>
+      <c r="C172" s="49"/>
+      <c r="D172" s="49"/>
+      <c r="E172" s="49"/>
+      <c r="F172" s="49"/>
+      <c r="G172" s="49"/>
+      <c r="H172" s="49"/>
+      <c r="I172" s="49"/>
     </row>
     <row r="173" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="8"/>
-      <c r="B173" s="57" t="s">
+      <c r="B173" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C173" s="57"/>
-      <c r="D173" s="57"/>
-      <c r="E173" s="57"/>
-      <c r="F173" s="57"/>
-      <c r="G173" s="57"/>
-      <c r="H173" s="57"/>
-      <c r="I173" s="57"/>
+      <c r="C173" s="49"/>
+      <c r="D173" s="49"/>
+      <c r="E173" s="49"/>
+      <c r="F173" s="49"/>
+      <c r="G173" s="49"/>
+      <c r="H173" s="49"/>
+      <c r="I173" s="49"/>
     </row>
     <row r="174" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="8"/>
-      <c r="B174" s="57" t="s">
+      <c r="B174" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C174" s="57"/>
-      <c r="D174" s="57"/>
-      <c r="E174" s="57"/>
-      <c r="F174" s="57"/>
-      <c r="G174" s="57"/>
-      <c r="H174" s="57"/>
-      <c r="I174" s="57"/>
+      <c r="C174" s="49"/>
+      <c r="D174" s="49"/>
+      <c r="E174" s="49"/>
+      <c r="F174" s="49"/>
+      <c r="G174" s="49"/>
+      <c r="H174" s="49"/>
+      <c r="I174" s="49"/>
     </row>
     <row r="175" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
         <v>6</v>
       </c>
-      <c r="B175" s="57" t="s">
+      <c r="B175" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C175" s="57"/>
-      <c r="D175" s="57"/>
-      <c r="E175" s="57"/>
-      <c r="F175" s="57"/>
-      <c r="G175" s="57"/>
-      <c r="H175" s="57"/>
-      <c r="I175" s="57"/>
+      <c r="C175" s="49"/>
+      <c r="D175" s="49"/>
+      <c r="E175" s="49"/>
+      <c r="F175" s="49"/>
+      <c r="G175" s="49"/>
+      <c r="H175" s="49"/>
+      <c r="I175" s="49"/>
     </row>
     <row r="176" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="8"/>
-      <c r="B176" s="57" t="s">
+      <c r="B176" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C176" s="57"/>
-      <c r="D176" s="57"/>
-      <c r="E176" s="57"/>
-      <c r="F176" s="57"/>
-      <c r="G176" s="57"/>
-      <c r="H176" s="57"/>
-      <c r="I176" s="57"/>
+      <c r="C176" s="49"/>
+      <c r="D176" s="49"/>
+      <c r="E176" s="49"/>
+      <c r="F176" s="49"/>
+      <c r="G176" s="49"/>
+      <c r="H176" s="49"/>
+      <c r="I176" s="49"/>
     </row>
     <row r="177" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="8"/>
-      <c r="B177" s="57" t="s">
+      <c r="B177" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="C177" s="57"/>
-      <c r="D177" s="57"/>
-      <c r="E177" s="57"/>
-      <c r="F177" s="57"/>
-      <c r="G177" s="57"/>
-      <c r="H177" s="57"/>
-      <c r="I177" s="57"/>
+      <c r="C177" s="49"/>
+      <c r="D177" s="49"/>
+      <c r="E177" s="49"/>
+      <c r="F177" s="49"/>
+      <c r="G177" s="49"/>
+      <c r="H177" s="49"/>
+      <c r="I177" s="49"/>
     </row>
     <row r="178" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
         <v>7</v>
       </c>
-      <c r="B178" s="57" t="s">
+      <c r="B178" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="C178" s="57"/>
-      <c r="D178" s="57"/>
-      <c r="E178" s="57"/>
-      <c r="F178" s="57"/>
-      <c r="G178" s="57"/>
-      <c r="H178" s="57"/>
-      <c r="I178" s="57"/>
+      <c r="C178" s="49"/>
+      <c r="D178" s="49"/>
+      <c r="E178" s="49"/>
+      <c r="F178" s="49"/>
+      <c r="G178" s="49"/>
+      <c r="H178" s="49"/>
+      <c r="I178" s="49"/>
     </row>
     <row r="179" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="8">
         <v>8</v>
       </c>
-      <c r="B179" s="57" t="s">
+      <c r="B179" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="C179" s="57"/>
-      <c r="D179" s="57"/>
-      <c r="E179" s="57"/>
-      <c r="F179" s="57"/>
-      <c r="G179" s="57"/>
-      <c r="H179" s="57"/>
-      <c r="I179" s="57"/>
+      <c r="C179" s="49"/>
+      <c r="D179" s="49"/>
+      <c r="E179" s="49"/>
+      <c r="F179" s="49"/>
+      <c r="G179" s="49"/>
+      <c r="H179" s="49"/>
+      <c r="I179" s="49"/>
     </row>
     <row r="180" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="8"/>
-      <c r="B180" s="57" t="s">
+      <c r="B180" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="C180" s="57"/>
-      <c r="D180" s="57"/>
-      <c r="E180" s="57"/>
-      <c r="F180" s="57"/>
-      <c r="G180" s="57"/>
-      <c r="H180" s="57"/>
-      <c r="I180" s="57"/>
+      <c r="C180" s="49"/>
+      <c r="D180" s="49"/>
+      <c r="E180" s="49"/>
+      <c r="F180" s="49"/>
+      <c r="G180" s="49"/>
+      <c r="H180" s="49"/>
+      <c r="I180" s="49"/>
     </row>
     <row r="181" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="8"/>
-      <c r="B181" s="57" t="s">
+      <c r="B181" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C181" s="57"/>
-      <c r="D181" s="57"/>
-      <c r="E181" s="57"/>
-      <c r="F181" s="57"/>
-      <c r="G181" s="57"/>
-      <c r="H181" s="57"/>
-      <c r="I181" s="57"/>
+      <c r="C181" s="49"/>
+      <c r="D181" s="49"/>
+      <c r="E181" s="49"/>
+      <c r="F181" s="49"/>
+      <c r="G181" s="49"/>
+      <c r="H181" s="49"/>
+      <c r="I181" s="49"/>
     </row>
     <row r="182" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="8"/>
-      <c r="B182" s="57" t="s">
+      <c r="B182" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="C182" s="57"/>
-      <c r="D182" s="57"/>
-      <c r="E182" s="57"/>
-      <c r="F182" s="57"/>
-      <c r="G182" s="57"/>
-      <c r="H182" s="57"/>
-      <c r="I182" s="57"/>
+      <c r="C182" s="49"/>
+      <c r="D182" s="49"/>
+      <c r="E182" s="49"/>
+      <c r="F182" s="49"/>
+      <c r="G182" s="49"/>
+      <c r="H182" s="49"/>
+      <c r="I182" s="49"/>
     </row>
     <row r="183" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="8"/>
-      <c r="B183" s="57" t="s">
+      <c r="B183" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="C183" s="57"/>
-      <c r="D183" s="57"/>
-      <c r="E183" s="57"/>
-      <c r="F183" s="57"/>
-      <c r="G183" s="57"/>
-      <c r="H183" s="57"/>
-      <c r="I183" s="57"/>
+      <c r="C183" s="49"/>
+      <c r="D183" s="49"/>
+      <c r="E183" s="49"/>
+      <c r="F183" s="49"/>
+      <c r="G183" s="49"/>
+      <c r="H183" s="49"/>
+      <c r="I183" s="49"/>
     </row>
     <row r="184" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="8"/>
-      <c r="B184" s="57" t="s">
+      <c r="B184" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C184" s="57"/>
-      <c r="D184" s="57"/>
-      <c r="E184" s="57"/>
-      <c r="F184" s="57"/>
-      <c r="G184" s="57"/>
-      <c r="H184" s="57"/>
-      <c r="I184" s="57"/>
+      <c r="C184" s="49"/>
+      <c r="D184" s="49"/>
+      <c r="E184" s="49"/>
+      <c r="F184" s="49"/>
+      <c r="G184" s="49"/>
+      <c r="H184" s="49"/>
+      <c r="I184" s="49"/>
     </row>
     <row r="185" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="8"/>
-      <c r="B185" s="57" t="s">
+      <c r="B185" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="C185" s="57"/>
-      <c r="D185" s="57"/>
-      <c r="E185" s="57"/>
-      <c r="F185" s="57"/>
-      <c r="G185" s="57"/>
-      <c r="H185" s="57"/>
-      <c r="I185" s="57"/>
+      <c r="C185" s="49"/>
+      <c r="D185" s="49"/>
+      <c r="E185" s="49"/>
+      <c r="F185" s="49"/>
+      <c r="G185" s="49"/>
+      <c r="H185" s="49"/>
+      <c r="I185" s="49"/>
     </row>
     <row r="186" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="8">
         <v>9</v>
       </c>
-      <c r="B186" s="57" t="s">
+      <c r="B186" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="C186" s="57"/>
-      <c r="D186" s="57"/>
-      <c r="E186" s="57"/>
-      <c r="F186" s="57"/>
-      <c r="G186" s="57"/>
-      <c r="H186" s="57"/>
-      <c r="I186" s="57"/>
+      <c r="C186" s="49"/>
+      <c r="D186" s="49"/>
+      <c r="E186" s="49"/>
+      <c r="F186" s="49"/>
+      <c r="G186" s="49"/>
+      <c r="H186" s="49"/>
+      <c r="I186" s="49"/>
     </row>
     <row r="187" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="8">
         <v>10</v>
       </c>
-      <c r="B187" s="57" t="s">
+      <c r="B187" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C187" s="57"/>
-      <c r="D187" s="57"/>
-      <c r="E187" s="57"/>
-      <c r="F187" s="57"/>
-      <c r="G187" s="57"/>
-      <c r="H187" s="57"/>
-      <c r="I187" s="57"/>
+      <c r="C187" s="49"/>
+      <c r="D187" s="49"/>
+      <c r="E187" s="49"/>
+      <c r="F187" s="49"/>
+      <c r="G187" s="49"/>
+      <c r="H187" s="49"/>
+      <c r="I187" s="49"/>
     </row>
     <row r="188" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="8"/>
-      <c r="B188" s="57" t="s">
+      <c r="B188" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C188" s="57"/>
-      <c r="D188" s="57"/>
-      <c r="E188" s="57"/>
-      <c r="F188" s="57"/>
-      <c r="G188" s="57"/>
-      <c r="H188" s="57"/>
-      <c r="I188" s="57"/>
+      <c r="C188" s="49"/>
+      <c r="D188" s="49"/>
+      <c r="E188" s="49"/>
+      <c r="F188" s="49"/>
+      <c r="G188" s="49"/>
+      <c r="H188" s="49"/>
+      <c r="I188" s="49"/>
     </row>
     <row r="189" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="8"/>
-      <c r="B189" s="57" t="s">
+      <c r="B189" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="C189" s="57"/>
-      <c r="D189" s="57"/>
-      <c r="E189" s="57"/>
-      <c r="F189" s="57"/>
-      <c r="G189" s="57"/>
-      <c r="H189" s="57"/>
-      <c r="I189" s="57"/>
+      <c r="C189" s="49"/>
+      <c r="D189" s="49"/>
+      <c r="E189" s="49"/>
+      <c r="F189" s="49"/>
+      <c r="G189" s="49"/>
+      <c r="H189" s="49"/>
+      <c r="I189" s="49"/>
     </row>
     <row r="190" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="8"/>
-      <c r="B190" s="57" t="s">
+      <c r="B190" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="C190" s="57"/>
-      <c r="D190" s="57"/>
-      <c r="E190" s="57"/>
-      <c r="F190" s="57"/>
-      <c r="G190" s="57"/>
-      <c r="H190" s="57"/>
-      <c r="I190" s="57"/>
+      <c r="C190" s="49"/>
+      <c r="D190" s="49"/>
+      <c r="E190" s="49"/>
+      <c r="F190" s="49"/>
+      <c r="G190" s="49"/>
+      <c r="H190" s="49"/>
+      <c r="I190" s="49"/>
     </row>
     <row r="191" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="8"/>
-      <c r="B191" s="57" t="s">
+      <c r="B191" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C191" s="57"/>
-      <c r="D191" s="57"/>
-      <c r="E191" s="57"/>
-      <c r="F191" s="57"/>
-      <c r="G191" s="57"/>
-      <c r="H191" s="57"/>
-      <c r="I191" s="57"/>
+      <c r="C191" s="49"/>
+      <c r="D191" s="49"/>
+      <c r="E191" s="49"/>
+      <c r="F191" s="49"/>
+      <c r="G191" s="49"/>
+      <c r="H191" s="49"/>
+      <c r="I191" s="49"/>
     </row>
     <row r="192" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="8">
         <v>11</v>
       </c>
-      <c r="B192" s="57" t="s">
+      <c r="B192" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="C192" s="57"/>
-      <c r="D192" s="57"/>
-      <c r="E192" s="57"/>
-      <c r="F192" s="57"/>
-      <c r="G192" s="57"/>
-      <c r="H192" s="57"/>
-      <c r="I192" s="57"/>
+      <c r="C192" s="49"/>
+      <c r="D192" s="49"/>
+      <c r="E192" s="49"/>
+      <c r="F192" s="49"/>
+      <c r="G192" s="49"/>
+      <c r="H192" s="49"/>
+      <c r="I192" s="49"/>
     </row>
     <row r="193" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="8"/>
-      <c r="B193" s="57" t="s">
+      <c r="B193" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C193" s="57"/>
-      <c r="D193" s="57"/>
-      <c r="E193" s="57"/>
-      <c r="F193" s="57"/>
-      <c r="G193" s="57"/>
-      <c r="H193" s="57"/>
-      <c r="I193" s="57"/>
+      <c r="C193" s="49"/>
+      <c r="D193" s="49"/>
+      <c r="E193" s="49"/>
+      <c r="F193" s="49"/>
+      <c r="G193" s="49"/>
+      <c r="H193" s="49"/>
+      <c r="I193" s="49"/>
     </row>
     <row r="194" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="8"/>
-      <c r="B194" s="57" t="s">
+      <c r="B194" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="C194" s="57"/>
-      <c r="D194" s="57"/>
-      <c r="E194" s="57"/>
-      <c r="F194" s="57"/>
-      <c r="G194" s="57"/>
-      <c r="H194" s="57"/>
-      <c r="I194" s="57"/>
+      <c r="C194" s="49"/>
+      <c r="D194" s="49"/>
+      <c r="E194" s="49"/>
+      <c r="F194" s="49"/>
+      <c r="G194" s="49"/>
+      <c r="H194" s="49"/>
+      <c r="I194" s="49"/>
     </row>
     <row r="195" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="8">
         <v>12</v>
       </c>
-      <c r="B195" s="57" t="s">
+      <c r="B195" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="C195" s="57"/>
-      <c r="D195" s="57"/>
-      <c r="E195" s="57"/>
-      <c r="F195" s="57"/>
-      <c r="G195" s="57"/>
-      <c r="H195" s="57"/>
-      <c r="I195" s="57"/>
+      <c r="C195" s="49"/>
+      <c r="D195" s="49"/>
+      <c r="E195" s="49"/>
+      <c r="F195" s="49"/>
+      <c r="G195" s="49"/>
+      <c r="H195" s="49"/>
+      <c r="I195" s="49"/>
     </row>
     <row r="196" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="8"/>
-      <c r="B196" s="57" t="s">
+      <c r="B196" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C196" s="57"/>
-      <c r="D196" s="57"/>
-      <c r="E196" s="57"/>
-      <c r="F196" s="57"/>
-      <c r="G196" s="57"/>
-      <c r="H196" s="57"/>
-      <c r="I196" s="57"/>
+      <c r="C196" s="49"/>
+      <c r="D196" s="49"/>
+      <c r="E196" s="49"/>
+      <c r="F196" s="49"/>
+      <c r="G196" s="49"/>
+      <c r="H196" s="49"/>
+      <c r="I196" s="49"/>
     </row>
     <row r="197" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="8"/>
-      <c r="B197" s="57" t="s">
+      <c r="B197" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="C197" s="57"/>
-      <c r="D197" s="57"/>
-      <c r="E197" s="57"/>
-      <c r="F197" s="57"/>
-      <c r="G197" s="57"/>
-      <c r="H197" s="57"/>
-      <c r="I197" s="57"/>
+      <c r="C197" s="49"/>
+      <c r="D197" s="49"/>
+      <c r="E197" s="49"/>
+      <c r="F197" s="49"/>
+      <c r="G197" s="49"/>
+      <c r="H197" s="49"/>
+      <c r="I197" s="49"/>
     </row>
     <row r="198" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="8"/>
-      <c r="B198" s="57" t="s">
+      <c r="B198" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="C198" s="57"/>
-      <c r="D198" s="57"/>
-      <c r="E198" s="57"/>
-      <c r="F198" s="57"/>
-      <c r="G198" s="57"/>
-      <c r="H198" s="57"/>
-      <c r="I198" s="57"/>
+      <c r="C198" s="49"/>
+      <c r="D198" s="49"/>
+      <c r="E198" s="49"/>
+      <c r="F198" s="49"/>
+      <c r="G198" s="49"/>
+      <c r="H198" s="49"/>
+      <c r="I198" s="49"/>
     </row>
     <row r="199" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="8"/>
-      <c r="B199" s="57" t="s">
+      <c r="B199" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="C199" s="57"/>
-      <c r="D199" s="57"/>
-      <c r="E199" s="57"/>
-      <c r="F199" s="57"/>
-      <c r="G199" s="57"/>
-      <c r="H199" s="57"/>
-      <c r="I199" s="57"/>
+      <c r="C199" s="49"/>
+      <c r="D199" s="49"/>
+      <c r="E199" s="49"/>
+      <c r="F199" s="49"/>
+      <c r="G199" s="49"/>
+      <c r="H199" s="49"/>
+      <c r="I199" s="49"/>
     </row>
     <row r="200" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="8">
         <v>13</v>
       </c>
-      <c r="B200" s="57" t="s">
+      <c r="B200" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="C200" s="57"/>
-      <c r="D200" s="57"/>
-      <c r="E200" s="57"/>
-      <c r="F200" s="57"/>
-      <c r="G200" s="57"/>
-      <c r="H200" s="57"/>
-      <c r="I200" s="57"/>
+      <c r="C200" s="49"/>
+      <c r="D200" s="49"/>
+      <c r="E200" s="49"/>
+      <c r="F200" s="49"/>
+      <c r="G200" s="49"/>
+      <c r="H200" s="49"/>
+      <c r="I200" s="49"/>
     </row>
     <row r="201" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="8"/>
-      <c r="B201" s="57" t="s">
+      <c r="B201" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="C201" s="57"/>
-      <c r="D201" s="57"/>
-      <c r="E201" s="57"/>
-      <c r="F201" s="57"/>
-      <c r="G201" s="57"/>
-      <c r="H201" s="57"/>
-      <c r="I201" s="57"/>
+      <c r="C201" s="49"/>
+      <c r="D201" s="49"/>
+      <c r="E201" s="49"/>
+      <c r="F201" s="49"/>
+      <c r="G201" s="49"/>
+      <c r="H201" s="49"/>
+      <c r="I201" s="49"/>
     </row>
     <row r="202" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="8"/>
-      <c r="B202" s="57" t="s">
+      <c r="B202" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="C202" s="57"/>
-      <c r="D202" s="57"/>
-      <c r="E202" s="57"/>
-      <c r="F202" s="57"/>
-      <c r="G202" s="57"/>
-      <c r="H202" s="57"/>
-      <c r="I202" s="57"/>
+      <c r="C202" s="49"/>
+      <c r="D202" s="49"/>
+      <c r="E202" s="49"/>
+      <c r="F202" s="49"/>
+      <c r="G202" s="49"/>
+      <c r="H202" s="49"/>
+      <c r="I202" s="49"/>
     </row>
     <row r="203" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="8">
         <v>14</v>
       </c>
-      <c r="B203" s="57" t="s">
+      <c r="B203" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="C203" s="57"/>
-      <c r="D203" s="57"/>
-      <c r="E203" s="57"/>
-      <c r="F203" s="57"/>
-      <c r="G203" s="57"/>
-      <c r="H203" s="57"/>
-      <c r="I203" s="57"/>
+      <c r="C203" s="49"/>
+      <c r="D203" s="49"/>
+      <c r="E203" s="49"/>
+      <c r="F203" s="49"/>
+      <c r="G203" s="49"/>
+      <c r="H203" s="49"/>
+      <c r="I203" s="49"/>
     </row>
     <row r="204" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="8"/>
-      <c r="B204" s="57" t="s">
+      <c r="B204" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="C204" s="57"/>
-      <c r="D204" s="57"/>
-      <c r="E204" s="57"/>
-      <c r="F204" s="57"/>
-      <c r="G204" s="57"/>
-      <c r="H204" s="57"/>
-      <c r="I204" s="57"/>
+      <c r="C204" s="49"/>
+      <c r="D204" s="49"/>
+      <c r="E204" s="49"/>
+      <c r="F204" s="49"/>
+      <c r="G204" s="49"/>
+      <c r="H204" s="49"/>
+      <c r="I204" s="49"/>
     </row>
     <row r="205" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="8"/>
-      <c r="B205" s="57" t="s">
+      <c r="B205" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="C205" s="57"/>
-      <c r="D205" s="57"/>
-      <c r="E205" s="57"/>
-      <c r="F205" s="57"/>
-      <c r="G205" s="57"/>
-      <c r="H205" s="57"/>
-      <c r="I205" s="57"/>
+      <c r="C205" s="49"/>
+      <c r="D205" s="49"/>
+      <c r="E205" s="49"/>
+      <c r="F205" s="49"/>
+      <c r="G205" s="49"/>
+      <c r="H205" s="49"/>
+      <c r="I205" s="49"/>
     </row>
     <row r="206" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="8"/>
-      <c r="B206" s="57" t="s">
+      <c r="B206" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="C206" s="57"/>
-      <c r="D206" s="57"/>
-      <c r="E206" s="57"/>
-      <c r="F206" s="57"/>
-      <c r="G206" s="57"/>
-      <c r="H206" s="57"/>
-      <c r="I206" s="57"/>
+      <c r="C206" s="49"/>
+      <c r="D206" s="49"/>
+      <c r="E206" s="49"/>
+      <c r="F206" s="49"/>
+      <c r="G206" s="49"/>
+      <c r="H206" s="49"/>
+      <c r="I206" s="49"/>
     </row>
     <row r="207" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="8"/>
-      <c r="B207" s="57" t="s">
+      <c r="B207" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="C207" s="57"/>
-      <c r="D207" s="57"/>
-      <c r="E207" s="57"/>
-      <c r="F207" s="57"/>
-      <c r="G207" s="57"/>
-      <c r="H207" s="57"/>
-      <c r="I207" s="57"/>
+      <c r="C207" s="49"/>
+      <c r="D207" s="49"/>
+      <c r="E207" s="49"/>
+      <c r="F207" s="49"/>
+      <c r="G207" s="49"/>
+      <c r="H207" s="49"/>
+      <c r="I207" s="49"/>
     </row>
     <row r="208" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="8">
         <v>15</v>
       </c>
-      <c r="B208" s="57" t="s">
+      <c r="B208" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="C208" s="57"/>
-      <c r="D208" s="57"/>
-      <c r="E208" s="57"/>
-      <c r="F208" s="57"/>
-      <c r="G208" s="57"/>
-      <c r="H208" s="57"/>
-      <c r="I208" s="57"/>
+      <c r="C208" s="49"/>
+      <c r="D208" s="49"/>
+      <c r="E208" s="49"/>
+      <c r="F208" s="49"/>
+      <c r="G208" s="49"/>
+      <c r="H208" s="49"/>
+      <c r="I208" s="49"/>
     </row>
     <row r="209" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="8">
         <v>16</v>
       </c>
-      <c r="B209" s="57" t="s">
+      <c r="B209" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C209" s="57"/>
-      <c r="D209" s="57"/>
-      <c r="E209" s="57"/>
-      <c r="F209" s="57"/>
-      <c r="G209" s="57"/>
-      <c r="H209" s="57"/>
-      <c r="I209" s="57"/>
+      <c r="C209" s="49"/>
+      <c r="D209" s="49"/>
+      <c r="E209" s="49"/>
+      <c r="F209" s="49"/>
+      <c r="G209" s="49"/>
+      <c r="H209" s="49"/>
+      <c r="I209" s="49"/>
     </row>
     <row r="210" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="8">
         <v>17</v>
       </c>
-      <c r="B210" s="57" t="s">
+      <c r="B210" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="C210" s="57"/>
-      <c r="D210" s="57"/>
-      <c r="E210" s="57"/>
-      <c r="F210" s="57"/>
-      <c r="G210" s="57"/>
-      <c r="H210" s="57"/>
-      <c r="I210" s="57"/>
+      <c r="C210" s="49"/>
+      <c r="D210" s="49"/>
+      <c r="E210" s="49"/>
+      <c r="F210" s="49"/>
+      <c r="G210" s="49"/>
+      <c r="H210" s="49"/>
+      <c r="I210" s="49"/>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="27"/>
@@ -4072,6 +4072,71 @@
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A8:I9"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B92:I93"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B86:I89"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="Q9:X9"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A11:I14"/>
+    <mergeCell ref="M11:T14"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B209:I209"/>
+    <mergeCell ref="B198:I198"/>
+    <mergeCell ref="B199:I199"/>
+    <mergeCell ref="B200:I200"/>
+    <mergeCell ref="B201:I201"/>
+    <mergeCell ref="B202:I202"/>
+    <mergeCell ref="B203:I203"/>
+    <mergeCell ref="B204:I204"/>
+    <mergeCell ref="B205:I205"/>
+    <mergeCell ref="B206:I206"/>
+    <mergeCell ref="B207:I207"/>
+    <mergeCell ref="B208:I208"/>
+    <mergeCell ref="B183:I183"/>
+    <mergeCell ref="B184:I184"/>
+    <mergeCell ref="B197:I197"/>
+    <mergeCell ref="B186:I186"/>
+    <mergeCell ref="B187:I187"/>
+    <mergeCell ref="B188:I188"/>
+    <mergeCell ref="B189:I189"/>
+    <mergeCell ref="B190:I190"/>
+    <mergeCell ref="B191:I191"/>
+    <mergeCell ref="B192:I192"/>
+    <mergeCell ref="B193:I193"/>
+    <mergeCell ref="B194:I194"/>
+    <mergeCell ref="B195:I195"/>
+    <mergeCell ref="B196:I196"/>
+    <mergeCell ref="B170:I170"/>
+    <mergeCell ref="B171:I171"/>
+    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="B139:I141"/>
+    <mergeCell ref="B185:I185"/>
+    <mergeCell ref="B172:I172"/>
+    <mergeCell ref="B173:I173"/>
+    <mergeCell ref="B174:I174"/>
+    <mergeCell ref="B175:I175"/>
+    <mergeCell ref="B181:I181"/>
+    <mergeCell ref="B176:I176"/>
+    <mergeCell ref="B177:I177"/>
+    <mergeCell ref="B178:I178"/>
+    <mergeCell ref="B179:I179"/>
+    <mergeCell ref="B180:I180"/>
+    <mergeCell ref="B182:I182"/>
     <mergeCell ref="B210:I210"/>
     <mergeCell ref="B126:I129"/>
     <mergeCell ref="B114:I114"/>
@@ -4088,71 +4153,6 @@
     <mergeCell ref="B167:I167"/>
     <mergeCell ref="B168:I168"/>
     <mergeCell ref="B169:I169"/>
-    <mergeCell ref="B170:I170"/>
-    <mergeCell ref="B171:I171"/>
-    <mergeCell ref="F165:G165"/>
-    <mergeCell ref="B139:I141"/>
-    <mergeCell ref="B185:I185"/>
-    <mergeCell ref="B172:I172"/>
-    <mergeCell ref="B173:I173"/>
-    <mergeCell ref="B174:I174"/>
-    <mergeCell ref="B175:I175"/>
-    <mergeCell ref="B181:I181"/>
-    <mergeCell ref="B176:I176"/>
-    <mergeCell ref="B177:I177"/>
-    <mergeCell ref="B178:I178"/>
-    <mergeCell ref="B179:I179"/>
-    <mergeCell ref="B180:I180"/>
-    <mergeCell ref="B182:I182"/>
-    <mergeCell ref="B183:I183"/>
-    <mergeCell ref="B184:I184"/>
-    <mergeCell ref="B197:I197"/>
-    <mergeCell ref="B186:I186"/>
-    <mergeCell ref="B187:I187"/>
-    <mergeCell ref="B188:I188"/>
-    <mergeCell ref="B189:I189"/>
-    <mergeCell ref="B190:I190"/>
-    <mergeCell ref="B191:I191"/>
-    <mergeCell ref="B192:I192"/>
-    <mergeCell ref="B193:I193"/>
-    <mergeCell ref="B194:I194"/>
-    <mergeCell ref="B195:I195"/>
-    <mergeCell ref="B196:I196"/>
-    <mergeCell ref="B209:I209"/>
-    <mergeCell ref="B198:I198"/>
-    <mergeCell ref="B199:I199"/>
-    <mergeCell ref="B200:I200"/>
-    <mergeCell ref="B201:I201"/>
-    <mergeCell ref="B202:I202"/>
-    <mergeCell ref="B203:I203"/>
-    <mergeCell ref="B204:I204"/>
-    <mergeCell ref="B205:I205"/>
-    <mergeCell ref="B206:I206"/>
-    <mergeCell ref="B207:I207"/>
-    <mergeCell ref="B208:I208"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="Q9:X9"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A11:I14"/>
-    <mergeCell ref="M11:T14"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A8:I9"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B92:I93"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B86:I89"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B32:I32"/>
   </mergeCells>
   <conditionalFormatting sqref="B17">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
